--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClLandOwner.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClLandOwner.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F00591-3733-4896-BBD6-B3BA674AD768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -256,12 +266,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>擔保品代號1
-=1.房地:從1起編
-=2.土地:固定000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>擔保品-土地所有權人檔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -298,12 +302,17 @@
   </si>
   <si>
     <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = </t>
+  </si>
+  <si>
+    <t>擔保品代號1為1.房地時:從1起編
+擔保品代號1為2.土地時:固定000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -523,7 +532,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,6 +623,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -649,6 +675,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -824,11 +867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -851,7 +894,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -876,7 +919,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -917,7 +960,7 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1017,7 +1060,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1036,7 +1079,7 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1045,10 +1088,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>3</v>
@@ -1394,10 +1437,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -1429,26 +1472,26 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClLandOwner.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClLandOwner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F00591-3733-4896-BBD6-B3BA674AD768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675FCD44-0AF2-421B-8DB2-19F3B81EB64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -223,10 +223,6 @@
   </si>
   <si>
     <t>ClCode1,ClCode2,ClNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClLand(ClCode1,ClCode2,ClNo)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -871,7 +867,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -891,10 +887,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -919,7 +915,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -931,12 +927,8 @@
         <v>26</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -960,7 +952,7 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1009,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>13</v>
@@ -1029,7 +1021,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>13</v>
@@ -1066,20 +1058,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="18">
         <v>3</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1088,10 +1080,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>3</v>
@@ -1121,7 +1113,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1466,32 +1458,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
